--- a/pred_ohlcv/54_21/2019-10-16 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 BTG ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>1335.05597791</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1364.55597791</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1371.27837791</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1414.00297791</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1410.54547791</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1410.54547791</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1392.91657791</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1461.41657791</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1497.41657791</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>837.6272779099995</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>889.2867779099995</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1850.24267791</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3968.149377909999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3755.127177909999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3780.126176869999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3883.629332189999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3879.10403219</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3884.10329622</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3821.90239622</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3820.90239622</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3827.12239622</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3785.22019622</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4084.78009622</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>4170.44059622</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4260.98201945</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4260.86271945</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4370.86601945</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4370.86601945</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4351.40331945</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4351.40331945</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4544.40331945</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4863.03541945</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4849.03541945</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4851.03541945</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4847.03541945</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4820.291619449999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4875.25131945</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4629.225219449999</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4633.225219449999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4624.685219449999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4543.135919449999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4556.325919449999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4546.325919449999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4588.725919449998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4746.465919449998</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4787.056119449998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4703.660719449997</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4693.952619449998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4329.791919449997</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 BTG ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>1335.05597791</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1364.55597791</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1371.27837791</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1414.00297791</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1410.54547791</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1410.54547791</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1392.91657791</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1461.41657791</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1497.41657791</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>837.6272779099995</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>889.2867779099995</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1850.24267791</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3968.149377909999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3755.127177909999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3780.126176869999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3883.629332189999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3879.10403219</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3884.10329622</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3821.90239622</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3820.90239622</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3827.12239622</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3785.22019622</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4084.78009622</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>4170.44059622</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4260.98201945</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4260.86271945</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4370.86601945</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4370.86601945</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4351.40331945</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4544.40331945</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4540.42481945</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4863.03541945</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4851.03541945</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4847.03541945</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4837.96541945</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4767.63841945</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4986.429219449999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4992.659219449999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4951.566919449999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5007.778919449999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4820.291619449999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4875.25131945</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4821.276619449999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4629.225219449999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4556.325919449999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4560.325919449999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4520.225919449998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4588.725919449998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4746.465919449998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4787.056119449998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4703.660719449997</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4693.952619449998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4329.791919449997</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
